--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>23-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48077.32</v>
+        <v>369319.88</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48077.32</v>
+        <v>92329.97</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>48077.32</v>
+        <v>47891.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9726.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>303336.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>8364.57</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,68 +436,91 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>23-12-2022</t>
+          <t>30-12-2022</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>369319.88</v>
+        <v>49022.46</v>
+      </c>
+      <c r="C2" t="n">
+        <v>47722.91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92329.97</v>
+        <v>303392.97</v>
+      </c>
+      <c r="C3" t="n">
+        <v>302776.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47891.9</v>
+        <v>10289.26</v>
+      </c>
+      <c r="C4" t="n">
+        <v>10170.34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9726.75</v>
+        <v>11791.29</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10709.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>303336.66</v>
+        <v>93623.99000000001</v>
+      </c>
+      <c r="C6" t="n">
+        <v>92844.97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8364.57</v>
+        <v>374495.98</v>
+      </c>
+      <c r="C7" t="n">
+        <v>371379.89</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,11 +436,6 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>30-12-2022</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>06-01-2023</t>
         </is>
       </c>
@@ -448,79 +443,71 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49022.46</v>
-      </c>
-      <c r="C2" t="n">
-        <v>47722.91</v>
+        <v>371437.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>303392.97</v>
-      </c>
-      <c r="C3" t="n">
-        <v>302776.85</v>
+        <v>74287.53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10289.26</v>
-      </c>
-      <c r="C4" t="n">
-        <v>10170.34</v>
+        <v>47722.91</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Compass Small Cap II</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11791.29</v>
-      </c>
-      <c r="C5" t="n">
-        <v>10709.79</v>
+        <v>57.76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93623.99000000001</v>
-      </c>
-      <c r="C6" t="n">
-        <v>92844.97</v>
+        <v>10170.34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>374495.98</v>
-      </c>
-      <c r="C7" t="n">
-        <v>371379.89</v>
+        <v>302776.85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10709.79</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,75 +439,95 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371437.65</v>
+        <v>47722.91</v>
+      </c>
+      <c r="C2" t="n">
+        <v>46505.29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Compass Small Cap II</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74287.53</v>
+        <v>57.76</v>
+      </c>
+      <c r="C3" t="n">
+        <v>46.83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47722.91</v>
-      </c>
+        <v>10170.34</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Compass Small Cap II</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.76</v>
-      </c>
+        <v>302776.85</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10170.34</v>
-      </c>
+        <v>10709.79</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>302776.85</v>
+        <v>74287.53</v>
+      </c>
+      <c r="C7" t="n">
+        <v>23276.06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10709.79</v>
+        <v>371437.65</v>
+      </c>
+      <c r="C8" t="n">
+        <v>46552.12</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>13-01-2023</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -457,6 +462,9 @@
       <c r="C2" t="n">
         <v>46505.29</v>
       </c>
+      <c r="D2" t="n">
+        <v>46606.27</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -470,6 +478,9 @@
       <c r="C3" t="n">
         <v>46.83</v>
       </c>
+      <c r="D3" t="n">
+        <v>45.81</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -481,6 +492,9 @@
         <v>10170.34</v>
       </c>
       <c r="C4" t="inlineStr"/>
+      <c r="D4" t="n">
+        <v>9895.34</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -492,6 +506,9 @@
         <v>302776.85</v>
       </c>
       <c r="C5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>300849.78</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -503,6 +520,9 @@
         <v>10709.79</v>
       </c>
       <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>9452.08</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -516,6 +536,9 @@
       <c r="C7" t="n">
         <v>23276.06</v>
       </c>
+      <c r="D7" t="n">
+        <v>73369.86</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -528,6 +551,9 @@
       </c>
       <c r="C8" t="n">
         <v>46552.12</v>
+      </c>
+      <c r="D8" t="n">
+        <v>366849.28</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>20-01-2023</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -465,6 +470,9 @@
       <c r="D2" t="n">
         <v>46606.27</v>
       </c>
+      <c r="E2" t="n">
+        <v>48335.12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -480,6 +488,9 @@
       </c>
       <c r="D3" t="n">
         <v>45.81</v>
+      </c>
+      <c r="E3" t="n">
+        <v>48.73</v>
       </c>
     </row>
     <row r="4">
@@ -495,6 +506,9 @@
       <c r="D4" t="n">
         <v>9895.34</v>
       </c>
+      <c r="E4" t="n">
+        <v>10154.86</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -509,6 +523,9 @@
       <c r="D5" t="n">
         <v>300849.78</v>
       </c>
+      <c r="E5" t="n">
+        <v>302374.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -523,6 +540,9 @@
       <c r="D6" t="n">
         <v>9452.08</v>
       </c>
+      <c r="E6" t="n">
+        <v>9611.93</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -539,6 +559,9 @@
       <c r="D7" t="n">
         <v>73369.86</v>
       </c>
+      <c r="E7" t="n">
+        <v>74105.11</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -554,6 +577,9 @@
       </c>
       <c r="D8" t="n">
         <v>366849.28</v>
+      </c>
+      <c r="E8" t="n">
+        <v>370525.54</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>27-01-2023</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,9 @@
       <c r="E2" t="n">
         <v>48335.12</v>
       </c>
+      <c r="F2" t="n">
+        <v>48349.31</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +499,9 @@
       </c>
       <c r="E3" t="n">
         <v>48.73</v>
+      </c>
+      <c r="F3" t="n">
+        <v>51.22</v>
       </c>
     </row>
     <row r="4">
@@ -509,6 +520,9 @@
       <c r="E4" t="n">
         <v>10154.86</v>
       </c>
+      <c r="F4" t="n">
+        <v>10244.86</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -526,6 +540,9 @@
       <c r="E5" t="n">
         <v>302374.9</v>
       </c>
+      <c r="F5" t="n">
+        <v>302066.1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -543,6 +560,9 @@
       <c r="E6" t="n">
         <v>9611.93</v>
       </c>
+      <c r="F6" t="n">
+        <v>10129.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -562,6 +582,9 @@
       <c r="E7" t="n">
         <v>74105.11</v>
       </c>
+      <c r="F7" t="n">
+        <v>74168.13</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -580,6 +603,9 @@
       </c>
       <c r="E8" t="n">
         <v>370525.54</v>
+      </c>
+      <c r="F8" t="n">
+        <v>370840.65</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>03-02-2023</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -481,6 +486,9 @@
       <c r="F2" t="n">
         <v>48349.31</v>
       </c>
+      <c r="G2" t="n">
+        <v>48038.63</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -502,6 +510,9 @@
       </c>
       <c r="F3" t="n">
         <v>51.22</v>
+      </c>
+      <c r="G3" t="n">
+        <v>47.84</v>
       </c>
     </row>
     <row r="4">
@@ -523,6 +534,9 @@
       <c r="F4" t="n">
         <v>10244.86</v>
       </c>
+      <c r="G4" t="n">
+        <v>10188.67</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -543,6 +557,9 @@
       <c r="F5" t="n">
         <v>302066.1</v>
       </c>
+      <c r="G5" t="n">
+        <v>301848.53</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -563,6 +580,9 @@
       <c r="F6" t="n">
         <v>10129.16</v>
       </c>
+      <c r="G6" t="n">
+        <v>10307.63</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -585,6 +605,9 @@
       <c r="F7" t="n">
         <v>74168.13</v>
       </c>
+      <c r="G7" t="n">
+        <v>74086.25999999999</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -606,6 +629,9 @@
       </c>
       <c r="F8" t="n">
         <v>370840.65</v>
+      </c>
+      <c r="G8" t="n">
+        <v>370431.3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>10-02-2023</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -489,6 +494,9 @@
       <c r="G2" t="n">
         <v>48038.63</v>
       </c>
+      <c r="H2" t="n">
+        <v>48836.07</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -513,6 +521,9 @@
       </c>
       <c r="G3" t="n">
         <v>47.84</v>
+      </c>
+      <c r="H3" t="n">
+        <v>50.31</v>
       </c>
     </row>
     <row r="4">
@@ -537,6 +548,9 @@
       <c r="G4" t="n">
         <v>10188.67</v>
       </c>
+      <c r="H4" t="n">
+        <v>9768.33</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -560,6 +574,9 @@
       <c r="G5" t="n">
         <v>301848.53</v>
       </c>
+      <c r="H5" t="n">
+        <v>303114.02</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -583,6 +600,9 @@
       <c r="G6" t="n">
         <v>10307.63</v>
       </c>
+      <c r="H6" t="n">
+        <v>9893.889999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -608,6 +628,9 @@
       <c r="G7" t="n">
         <v>74086.25999999999</v>
       </c>
+      <c r="H7" t="n">
+        <v>74332.52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -632,6 +655,9 @@
       </c>
       <c r="G8" t="n">
         <v>370431.3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>371662.62</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>17-02-2023</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,9 @@
       <c r="H2" t="n">
         <v>48836.07</v>
       </c>
+      <c r="I2" t="n">
+        <v>46241.87</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +532,9 @@
       </c>
       <c r="H3" t="n">
         <v>50.31</v>
+      </c>
+      <c r="I3" t="n">
+        <v>48.85</v>
       </c>
     </row>
     <row r="4">
@@ -551,6 +562,9 @@
       <c r="H4" t="n">
         <v>9768.33</v>
       </c>
+      <c r="I4" t="n">
+        <v>9912.889999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -577,6 +591,9 @@
       <c r="H5" t="n">
         <v>303114.02</v>
       </c>
+      <c r="I5" t="n">
+        <v>302088.32</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -603,6 +620,9 @@
       <c r="H6" t="n">
         <v>9893.889999999999</v>
       </c>
+      <c r="I6" t="n">
+        <v>10278.93</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -631,6 +651,9 @@
       <c r="H7" t="n">
         <v>74332.52</v>
       </c>
+      <c r="I7" t="n">
+        <v>73714.17</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -658,6 +681,9 @@
       </c>
       <c r="H8" t="n">
         <v>371662.62</v>
+      </c>
+      <c r="I8" t="n">
+        <v>368570.86</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,11 @@
           <t>24-02-2023</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -505,6 +510,9 @@
       <c r="I2" t="n">
         <v>46241.87</v>
       </c>
+      <c r="J2" t="n">
+        <v>49127.16</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -536,6 +544,9 @@
       <c r="I3" t="n">
         <v>48.85</v>
       </c>
+      <c r="J3" t="n">
+        <v>46.16</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -565,6 +576,9 @@
       <c r="I4" t="n">
         <v>9912.889999999999</v>
       </c>
+      <c r="J4" t="n">
+        <v>10301.15</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -594,6 +608,9 @@
       <c r="I5" t="n">
         <v>302088.32</v>
       </c>
+      <c r="J5" t="n">
+        <v>302947.39</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -623,6 +640,9 @@
       <c r="I6" t="n">
         <v>10278.93</v>
       </c>
+      <c r="J6" t="n">
+        <v>10625.94</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -654,6 +674,9 @@
       <c r="I7" t="n">
         <v>73714.17</v>
       </c>
+      <c r="J7" t="n">
+        <v>74609.56</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -684,6 +707,9 @@
       </c>
       <c r="I8" t="n">
         <v>368570.86</v>
+      </c>
+      <c r="J8" t="n">
+        <v>373047.8</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>03-03-2023</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -513,6 +518,9 @@
       <c r="J2" t="n">
         <v>49127.16</v>
       </c>
+      <c r="K2" t="n">
+        <v>48917.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -547,6 +555,9 @@
       <c r="J3" t="n">
         <v>46.16</v>
       </c>
+      <c r="K3" t="n">
+        <v>49.23</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -579,6 +590,9 @@
       <c r="J4" t="n">
         <v>10301.15</v>
       </c>
+      <c r="K4" t="n">
+        <v>10192.81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -611,6 +625,9 @@
       <c r="J5" t="n">
         <v>302947.39</v>
       </c>
+      <c r="K5" t="n">
+        <v>303336.83</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -643,6 +660,9 @@
       <c r="J6" t="n">
         <v>10625.94</v>
       </c>
+      <c r="K6" t="n">
+        <v>10803.54</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -677,6 +697,9 @@
       <c r="J7" t="n">
         <v>74609.56</v>
       </c>
+      <c r="K7" t="n">
+        <v>74659.96000000001</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -710,6 +733,9 @@
       </c>
       <c r="J8" t="n">
         <v>373047.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>373299.81</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>10-03-2023</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -521,6 +526,9 @@
       <c r="K2" t="n">
         <v>48917.4</v>
       </c>
+      <c r="L2" t="n">
+        <v>48161.35</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -558,6 +566,9 @@
       <c r="K3" t="n">
         <v>49.23</v>
       </c>
+      <c r="L3" t="n">
+        <v>51.28</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -593,6 +604,9 @@
       <c r="K4" t="n">
         <v>10192.81</v>
       </c>
+      <c r="L4" t="n">
+        <v>9761.9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -628,6 +642,9 @@
       <c r="K5" t="n">
         <v>303336.83</v>
       </c>
+      <c r="L5" t="n">
+        <v>303201.93</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -663,6 +680,9 @@
       <c r="K6" t="n">
         <v>10803.54</v>
       </c>
+      <c r="L6" t="n">
+        <v>11687.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -700,6 +720,9 @@
       <c r="K7" t="n">
         <v>74659.96000000001</v>
       </c>
+      <c r="L7" t="n">
+        <v>74572.72</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -736,6 +759,9 @@
       </c>
       <c r="K8" t="n">
         <v>373299.81</v>
+      </c>
+      <c r="L8" t="n">
+        <v>372863.62</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BPAT.xlsx
+++ b/backend/src/excel_handler/files/BPAT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,6 +489,11 @@
           <t>17-03-2023</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>23-03-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -529,6 +534,9 @@
       <c r="L2" t="n">
         <v>48161.35</v>
       </c>
+      <c r="M2" t="n">
+        <v>47742.43</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -569,6 +577,9 @@
       <c r="L3" t="n">
         <v>51.28</v>
       </c>
+      <c r="M3" t="n">
+        <v>47.65</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -607,6 +618,9 @@
       <c r="L4" t="n">
         <v>9761.9</v>
       </c>
+      <c r="M4" t="n">
+        <v>9752.360000000001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -645,6 +659,9 @@
       <c r="L5" t="n">
         <v>303201.93</v>
       </c>
+      <c r="M5" t="n">
+        <v>303987.01</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -683,6 +700,9 @@
       <c r="L6" t="n">
         <v>11687.16</v>
       </c>
+      <c r="M6" t="n">
+        <v>11681.16</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -723,6 +743,9 @@
       <c r="L7" t="n">
         <v>74572.72</v>
       </c>
+      <c r="M7" t="n">
+        <v>74642.12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -762,6 +785,9 @@
       </c>
       <c r="L8" t="n">
         <v>372863.62</v>
+      </c>
+      <c r="M8" t="n">
+        <v>373210.61</v>
       </c>
     </row>
   </sheetData>
